--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2636182.751441744</v>
+        <v>2633930.671730537</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>75.45713216103611</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.7363964403885</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>94.41743113184168</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>165.320332480746</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>16.61609021059857</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>363.4338561986104</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>99.84759100840573</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506832</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316065</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620232</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>71.67037196991713</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>129.107892822388</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120542</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695443</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>26.05480806223588</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>95.21019414968927</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>156.0046924576054</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409622</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079030886</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654093</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943746</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943746</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943746</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,10 +4325,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4343,37 +4343,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.7237329438971</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C4" t="n">
-        <v>775.7875500159902</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
         <v>477.7578170212613</v>
@@ -4477,25 +4477,25 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1670.473856016984</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1670.473856016984</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1670.473856016984</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V4" t="n">
-        <v>1415.789367811097</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W4" t="n">
-        <v>1126.372197774137</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="X4" t="n">
-        <v>1126.372197774137</v>
+        <v>742.065142506584</v>
       </c>
       <c r="Y4" t="n">
-        <v>1126.372197774137</v>
+        <v>742.065142506584</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883006</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X5" t="n">
-        <v>2698.609586621927</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y5" t="n">
-        <v>2331.504681370805</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,31 +4662,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>482.9841991736007</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>482.9841991736007</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>335.0711055912076</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.900232967364</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>651.9203821015076</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>370.0144869816385</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,31 +5033,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="14">
@@ -5258,40 +5258,40 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,10 +5303,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466572</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.067041434951</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616109</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,34 +5495,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5540,10 +5540,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,13 +5586,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
         <v>427.7414352191925</v>
@@ -5604,13 +5604,13 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5650,25 +5650,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5732,67 +5732,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6315,16 +6315,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6680,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.482048055643</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1750.40682139984</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1495.722333193953</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1206.305163156993</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,16 +7309,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>408.925855915485</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7494,13 +7494,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,19 +7725,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019582437</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.41624546988314</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,19 +25126,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>61.40075786968288</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286584</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>63.36835372228754</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304639032</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.2797520048</v>
-      </c>
       <c r="J2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>645717.2797520048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93403.78684820636</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93403.78684820642</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820639</v>
       </c>
-      <c r="C4" t="n">
-        <v>93403.78684820636</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93403.78684820636</v>
-      </c>
       <c r="E4" t="n">
+        <v>14216.7520768551</v>
+      </c>
+      <c r="F4" t="n">
         <v>14216.75207685509</v>
       </c>
-      <c r="F4" t="n">
-        <v>14216.75207685512</v>
-      </c>
       <c r="G4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685507</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873249.0572457657</v>
+        <v>-873249.0572457653</v>
       </c>
       <c r="C6" t="n">
-        <v>455495.688481827</v>
+        <v>455495.6884818269</v>
       </c>
       <c r="D6" t="n">
-        <v>455495.6884818268</v>
+        <v>455495.6884818272</v>
       </c>
       <c r="E6" t="n">
-        <v>204965.5360438875</v>
+        <v>204930.7981184513</v>
       </c>
       <c r="F6" t="n">
-        <v>530377.9978512428</v>
+        <v>530343.2599258074</v>
       </c>
       <c r="G6" t="n">
-        <v>530377.9978512424</v>
+        <v>530343.2599258072</v>
       </c>
       <c r="H6" t="n">
-        <v>530377.9978512427</v>
+        <v>530343.2599258076</v>
       </c>
       <c r="I6" t="n">
-        <v>530377.9978512427</v>
+        <v>530343.2599258071</v>
       </c>
       <c r="J6" t="n">
-        <v>312846.7954539652</v>
+        <v>312812.0575285297</v>
       </c>
       <c r="K6" t="n">
-        <v>530377.9978512427</v>
+        <v>530343.2599258074</v>
       </c>
       <c r="L6" t="n">
-        <v>530377.9978512429</v>
+        <v>530343.2599258072</v>
       </c>
       <c r="M6" t="n">
-        <v>445322.9699157308</v>
+        <v>445288.2319902955</v>
       </c>
       <c r="N6" t="n">
-        <v>530377.9978512427</v>
+        <v>530343.2599258072</v>
       </c>
       <c r="O6" t="n">
-        <v>530377.9978512429</v>
+        <v>530343.259925807</v>
       </c>
       <c r="P6" t="n">
-        <v>530377.9978512428</v>
+        <v>530343.259925807</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4732379112257</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>240.9947042380805</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>85.41454905009562</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>24.44869285069592</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>332.6248785068144</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.8040824574432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>45.57345701452552</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194517</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468625</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090803</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>24.68204843992096</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.496150991986754e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.43893679709444e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,22 +34445,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066274</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875412</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,22 +38093,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
